--- a/Development/excels/Merged_Anomalies_PXRing_2.xlsx
+++ b/Development/excels/Merged_Anomalies_PXRing_2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7839DB4A106788EFE66724B65A5DCE3A8742158D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99F512A9-C674-4507-AB21-1B2016480C9E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_08C931A9135B5CEEE66724B65A5DCE3A87418D3E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49444DE3-3CCB-4963-AC63-BB6C1919C656}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4044" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="31">
   <si>
     <t>Run</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Disk -3:3</t>
-  </si>
-  <si>
-    <t>Disk -1:-2</t>
   </si>
 </sst>
 </file>
@@ -495,11 +492,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1010"/>
+  <dimension ref="A1:H1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A999" workbookViewId="0">
-      <selection activeCell="N1011" sqref="N1011"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -23983,22 +23978,22 @@
     </row>
     <row r="904" spans="1:8">
       <c r="A904">
-        <v>395445</v>
+        <v>395987</v>
       </c>
       <c r="B904">
-        <v>304</v>
+        <v>55</v>
       </c>
       <c r="C904">
-        <v>309</v>
+        <v>58</v>
       </c>
       <c r="D904">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E904" t="s">
         <v>8</v>
       </c>
       <c r="F904" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G904" t="s">
         <v>10</v>
@@ -24009,16 +24004,16 @@
     </row>
     <row r="905" spans="1:8">
       <c r="A905">
-        <v>395445</v>
+        <v>395987</v>
       </c>
       <c r="B905">
-        <v>640</v>
+        <v>872</v>
       </c>
       <c r="C905">
-        <v>644</v>
+        <v>872</v>
       </c>
       <c r="D905">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E905" t="s">
         <v>8</v>
@@ -24035,13 +24030,13 @@
     </row>
     <row r="906" spans="1:8">
       <c r="A906">
-        <v>395465</v>
+        <v>396008</v>
       </c>
       <c r="B906">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="C906">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="D906">
         <v>6</v>
@@ -24050,7 +24045,7 @@
         <v>8</v>
       </c>
       <c r="F906" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G906" t="s">
         <v>10</v>
@@ -24061,22 +24056,22 @@
     </row>
     <row r="907" spans="1:8">
       <c r="A907">
-        <v>395507</v>
+        <v>396009</v>
       </c>
       <c r="B907">
+        <v>695</v>
+      </c>
+      <c r="C907">
+        <v>697</v>
+      </c>
+      <c r="D907">
+        <v>3</v>
+      </c>
+      <c r="E907" t="s">
+        <v>8</v>
+      </c>
+      <c r="F907" t="s">
         <v>12</v>
-      </c>
-      <c r="C907">
-        <v>16</v>
-      </c>
-      <c r="D907">
-        <v>5</v>
-      </c>
-      <c r="E907" t="s">
-        <v>8</v>
-      </c>
-      <c r="F907" t="s">
-        <v>9</v>
       </c>
       <c r="G907" t="s">
         <v>10</v>
@@ -24087,22 +24082,22 @@
     </row>
     <row r="908" spans="1:8">
       <c r="A908">
-        <v>395524</v>
+        <v>396009</v>
       </c>
       <c r="B908">
-        <v>465</v>
+        <v>1423</v>
       </c>
       <c r="C908">
-        <v>469</v>
+        <v>1423</v>
       </c>
       <c r="D908">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E908" t="s">
         <v>8</v>
       </c>
       <c r="F908" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G908" t="s">
         <v>10</v>
@@ -24113,13 +24108,13 @@
     </row>
     <row r="909" spans="1:8">
       <c r="A909">
-        <v>395525</v>
+        <v>396057</v>
       </c>
       <c r="B909">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C909">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D909">
         <v>6</v>
@@ -24128,7 +24123,7 @@
         <v>8</v>
       </c>
       <c r="F909" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G909" t="s">
         <v>10</v>
@@ -24138,49 +24133,49 @@
       </c>
     </row>
     <row r="910" spans="1:8">
-      <c r="A910" s="2">
-        <v>395606</v>
-      </c>
-      <c r="B910" s="2">
-        <v>53</v>
-      </c>
-      <c r="C910" s="2">
-        <v>57</v>
-      </c>
-      <c r="D910" s="2">
-        <v>5</v>
-      </c>
-      <c r="E910" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F910" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G910" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H910" s="2" t="s">
-        <v>14</v>
+      <c r="A910">
+        <v>396096</v>
+      </c>
+      <c r="B910">
+        <v>19</v>
+      </c>
+      <c r="C910">
+        <v>24</v>
+      </c>
+      <c r="D910">
+        <v>6</v>
+      </c>
+      <c r="E910" t="s">
+        <v>8</v>
+      </c>
+      <c r="F910" t="s">
+        <v>16</v>
+      </c>
+      <c r="G910" t="s">
+        <v>10</v>
+      </c>
+      <c r="H910" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="911" spans="1:8">
       <c r="A911">
-        <v>395606</v>
+        <v>396102</v>
       </c>
       <c r="B911">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="C911">
-        <v>245</v>
+        <v>338</v>
       </c>
       <c r="D911">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E911" t="s">
         <v>8</v>
       </c>
       <c r="F911" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G911" t="s">
         <v>10</v>
@@ -24191,22 +24186,22 @@
     </row>
     <row r="912" spans="1:8">
       <c r="A912">
-        <v>395608</v>
+        <v>396102</v>
       </c>
       <c r="B912">
-        <v>209</v>
+        <v>709</v>
       </c>
       <c r="C912">
-        <v>211</v>
+        <v>719</v>
       </c>
       <c r="D912">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E912" t="s">
         <v>8</v>
       </c>
       <c r="F912" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G912" t="s">
         <v>10</v>
@@ -24217,13 +24212,13 @@
     </row>
     <row r="913" spans="1:8">
       <c r="A913">
-        <v>395622</v>
+        <v>396127</v>
       </c>
       <c r="B913">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="C913">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="D913">
         <v>6</v>
@@ -24243,22 +24238,22 @@
     </row>
     <row r="914" spans="1:8">
       <c r="A914">
-        <v>395641</v>
+        <v>396127</v>
       </c>
       <c r="B914">
-        <v>159</v>
+        <v>367</v>
       </c>
       <c r="C914">
-        <v>162</v>
+        <v>369</v>
       </c>
       <c r="D914">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E914" t="s">
         <v>8</v>
       </c>
       <c r="F914" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G914" t="s">
         <v>10</v>
@@ -24269,13 +24264,13 @@
     </row>
     <row r="915" spans="1:8">
       <c r="A915">
-        <v>395648</v>
+        <v>396127</v>
       </c>
       <c r="B915">
-        <v>220</v>
+        <v>1202</v>
       </c>
       <c r="C915">
-        <v>221</v>
+        <v>1203</v>
       </c>
       <c r="D915">
         <v>2</v>
@@ -24295,22 +24290,22 @@
     </row>
     <row r="916" spans="1:8">
       <c r="A916">
-        <v>395649</v>
+        <v>396127</v>
       </c>
       <c r="B916">
-        <v>125</v>
+        <v>1756</v>
       </c>
       <c r="C916">
-        <v>126</v>
+        <v>1758</v>
       </c>
       <c r="D916">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E916" t="s">
         <v>8</v>
       </c>
       <c r="F916" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G916" t="s">
         <v>10</v>
@@ -24321,13 +24316,13 @@
     </row>
     <row r="917" spans="1:8">
       <c r="A917">
-        <v>395649</v>
+        <v>396134</v>
       </c>
       <c r="B917">
-        <v>691</v>
+        <v>279</v>
       </c>
       <c r="C917">
-        <v>692</v>
+        <v>280</v>
       </c>
       <c r="D917">
         <v>2</v>
@@ -24336,7 +24331,7 @@
         <v>8</v>
       </c>
       <c r="F917" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G917" t="s">
         <v>10</v>
@@ -24347,22 +24342,22 @@
     </row>
     <row r="918" spans="1:8">
       <c r="A918">
-        <v>395670</v>
+        <v>396134</v>
       </c>
       <c r="B918">
-        <v>248</v>
+        <v>992</v>
       </c>
       <c r="C918">
-        <v>249</v>
+        <v>995</v>
       </c>
       <c r="D918">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E918" t="s">
         <v>8</v>
       </c>
       <c r="F918" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G918" t="s">
         <v>10</v>
@@ -24372,49 +24367,49 @@
       </c>
     </row>
     <row r="919" spans="1:8">
-      <c r="A919">
-        <v>395670</v>
-      </c>
-      <c r="B919">
-        <v>378</v>
-      </c>
-      <c r="C919">
-        <v>381</v>
-      </c>
-      <c r="D919">
-        <v>4</v>
-      </c>
-      <c r="E919" t="s">
-        <v>8</v>
-      </c>
-      <c r="F919" t="s">
-        <v>17</v>
-      </c>
-      <c r="G919" t="s">
-        <v>10</v>
-      </c>
-      <c r="H919" t="s">
-        <v>11</v>
+      <c r="A919" s="2">
+        <v>396134</v>
+      </c>
+      <c r="B919" s="2">
+        <v>1033</v>
+      </c>
+      <c r="C919" s="2">
+        <v>1037</v>
+      </c>
+      <c r="D919" s="2">
+        <v>5</v>
+      </c>
+      <c r="E919" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F919" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G919" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H919" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="920" spans="1:8">
       <c r="A920">
-        <v>395729</v>
+        <v>396148</v>
       </c>
       <c r="B920">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="C920">
-        <v>383</v>
+        <v>172</v>
       </c>
       <c r="D920">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E920" t="s">
         <v>8</v>
       </c>
       <c r="F920" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G920" t="s">
         <v>10</v>
@@ -24425,22 +24420,22 @@
     </row>
     <row r="921" spans="1:8">
       <c r="A921">
-        <v>395729</v>
+        <v>396154</v>
       </c>
       <c r="B921">
-        <v>385</v>
+        <v>73</v>
       </c>
       <c r="C921">
-        <v>468</v>
+        <v>74</v>
       </c>
       <c r="D921">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="E921" t="s">
         <v>8</v>
       </c>
       <c r="F921" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G921" t="s">
         <v>10</v>
@@ -24451,22 +24446,22 @@
     </row>
     <row r="922" spans="1:8">
       <c r="A922">
-        <v>395729</v>
+        <v>396157</v>
       </c>
       <c r="B922">
-        <v>470</v>
+        <v>125</v>
       </c>
       <c r="C922">
-        <v>541</v>
+        <v>126</v>
       </c>
       <c r="D922">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E922" t="s">
         <v>8</v>
       </c>
       <c r="F922" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G922" t="s">
         <v>10</v>
@@ -24477,22 +24472,22 @@
     </row>
     <row r="923" spans="1:8">
       <c r="A923">
-        <v>395729</v>
+        <v>396158</v>
       </c>
       <c r="B923">
-        <v>542</v>
+        <v>141</v>
       </c>
       <c r="C923">
-        <v>544</v>
+        <v>141</v>
       </c>
       <c r="D923">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E923" t="s">
         <v>8</v>
       </c>
       <c r="F923" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G923" t="s">
         <v>10</v>
@@ -24503,22 +24498,22 @@
     </row>
     <row r="924" spans="1:8">
       <c r="A924">
-        <v>395729</v>
+        <v>396158</v>
       </c>
       <c r="B924">
-        <v>545</v>
+        <v>324</v>
       </c>
       <c r="C924">
-        <v>810</v>
+        <v>329</v>
       </c>
       <c r="D924">
-        <v>266</v>
+        <v>6</v>
       </c>
       <c r="E924" t="s">
         <v>8</v>
       </c>
       <c r="F924" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G924" t="s">
         <v>10</v>
@@ -24529,22 +24524,22 @@
     </row>
     <row r="925" spans="1:8">
       <c r="A925">
-        <v>395729</v>
+        <v>396158</v>
       </c>
       <c r="B925">
-        <v>811</v>
+        <v>378</v>
       </c>
       <c r="C925">
-        <v>816</v>
+        <v>381</v>
       </c>
       <c r="D925">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E925" t="s">
         <v>8</v>
       </c>
       <c r="F925" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G925" t="s">
         <v>10</v>
@@ -24555,22 +24550,22 @@
     </row>
     <row r="926" spans="1:8">
       <c r="A926">
-        <v>395729</v>
+        <v>396158</v>
       </c>
       <c r="B926">
-        <v>817</v>
+        <v>1189</v>
       </c>
       <c r="C926">
-        <v>939</v>
+        <v>1193</v>
       </c>
       <c r="D926">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="E926" t="s">
         <v>8</v>
       </c>
       <c r="F926" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G926" t="s">
         <v>10</v>
@@ -24581,22 +24576,22 @@
     </row>
     <row r="927" spans="1:8">
       <c r="A927">
-        <v>395729</v>
+        <v>396177</v>
       </c>
       <c r="B927">
-        <v>941</v>
+        <v>82</v>
       </c>
       <c r="C927">
-        <v>1296</v>
+        <v>83</v>
       </c>
       <c r="D927">
-        <v>356</v>
+        <v>2</v>
       </c>
       <c r="E927" t="s">
         <v>8</v>
       </c>
       <c r="F927" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G927" t="s">
         <v>10</v>
@@ -24607,22 +24602,22 @@
     </row>
     <row r="928" spans="1:8">
       <c r="A928">
-        <v>395730</v>
+        <v>396180</v>
       </c>
       <c r="B928">
-        <v>1</v>
+        <v>411</v>
       </c>
       <c r="C928">
-        <v>5</v>
+        <v>412</v>
       </c>
       <c r="D928">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E928" t="s">
         <v>8</v>
       </c>
       <c r="F928" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G928" t="s">
         <v>10</v>
@@ -24633,22 +24628,22 @@
     </row>
     <row r="929" spans="1:8">
       <c r="A929">
-        <v>395730</v>
+        <v>396180</v>
       </c>
       <c r="B929">
-        <v>7</v>
+        <v>587</v>
       </c>
       <c r="C929">
-        <v>206</v>
+        <v>591</v>
       </c>
       <c r="D929">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="E929" t="s">
         <v>8</v>
       </c>
       <c r="F929" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G929" t="s">
         <v>10</v>
@@ -24659,22 +24654,22 @@
     </row>
     <row r="930" spans="1:8">
       <c r="A930">
-        <v>395730</v>
+        <v>396180</v>
       </c>
       <c r="B930">
-        <v>208</v>
+        <v>660</v>
       </c>
       <c r="C930">
-        <v>282</v>
+        <v>665</v>
       </c>
       <c r="D930">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="E930" t="s">
         <v>8</v>
       </c>
       <c r="F930" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G930" t="s">
         <v>10</v>
@@ -24684,49 +24679,49 @@
       </c>
     </row>
     <row r="931" spans="1:8">
-      <c r="A931">
-        <v>395730</v>
-      </c>
-      <c r="B931">
-        <v>284</v>
-      </c>
-      <c r="C931">
-        <v>413</v>
-      </c>
-      <c r="D931">
-        <v>130</v>
-      </c>
-      <c r="E931" t="s">
-        <v>8</v>
-      </c>
-      <c r="F931" t="s">
-        <v>17</v>
-      </c>
-      <c r="G931" t="s">
-        <v>10</v>
-      </c>
-      <c r="H931" t="s">
-        <v>11</v>
+      <c r="A931" s="2">
+        <v>396180</v>
+      </c>
+      <c r="B931" s="2">
+        <v>852</v>
+      </c>
+      <c r="C931" s="2">
+        <v>852</v>
+      </c>
+      <c r="D931" s="2">
+        <v>1</v>
+      </c>
+      <c r="E931" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F931" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G931" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H931" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="932" spans="1:8">
       <c r="A932">
-        <v>395749</v>
+        <v>396185</v>
       </c>
       <c r="B932">
-        <v>200</v>
+        <v>342</v>
       </c>
       <c r="C932">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="D932">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E932" t="s">
         <v>8</v>
       </c>
       <c r="F932" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G932" t="s">
         <v>10</v>
@@ -24737,22 +24732,22 @@
     </row>
     <row r="933" spans="1:8">
       <c r="A933">
-        <v>395749</v>
+        <v>396191</v>
       </c>
       <c r="B933">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="C933">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="D933">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E933" t="s">
         <v>8</v>
       </c>
       <c r="F933" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G933" t="s">
         <v>10</v>
@@ -24763,13 +24758,13 @@
     </row>
     <row r="934" spans="1:8">
       <c r="A934">
-        <v>395750</v>
+        <v>396191</v>
       </c>
       <c r="B934">
-        <v>275</v>
+        <v>517</v>
       </c>
       <c r="C934">
-        <v>276</v>
+        <v>518</v>
       </c>
       <c r="D934">
         <v>2</v>
@@ -24778,7 +24773,7 @@
         <v>8</v>
       </c>
       <c r="F934" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G934" t="s">
         <v>10</v>
@@ -24789,16 +24784,16 @@
     </row>
     <row r="935" spans="1:8">
       <c r="A935">
-        <v>395750</v>
+        <v>396191</v>
       </c>
       <c r="B935">
-        <v>425</v>
+        <v>607</v>
       </c>
       <c r="C935">
-        <v>427</v>
+        <v>607</v>
       </c>
       <c r="D935">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E935" t="s">
         <v>8</v>
@@ -24815,13 +24810,13 @@
     </row>
     <row r="936" spans="1:8">
       <c r="A936">
-        <v>395759</v>
+        <v>396191</v>
       </c>
       <c r="B936">
-        <v>1</v>
+        <v>1737</v>
       </c>
       <c r="C936">
-        <v>5</v>
+        <v>1741</v>
       </c>
       <c r="D936">
         <v>5</v>
@@ -24830,7 +24825,7 @@
         <v>8</v>
       </c>
       <c r="F936" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G936" t="s">
         <v>10</v>
@@ -24840,49 +24835,49 @@
       </c>
     </row>
     <row r="937" spans="1:8">
-      <c r="A937" s="2">
-        <v>395760</v>
-      </c>
-      <c r="B937" s="2">
-        <v>105</v>
-      </c>
-      <c r="C937" s="2">
-        <v>105</v>
-      </c>
-      <c r="D937" s="2">
+      <c r="A937">
+        <v>396227</v>
+      </c>
+      <c r="B937">
+        <v>254</v>
+      </c>
+      <c r="C937">
+        <v>254</v>
+      </c>
+      <c r="D937">
         <v>1</v>
       </c>
-      <c r="E937" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F937" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G937" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H937" s="2" t="s">
-        <v>14</v>
+      <c r="E937" t="s">
+        <v>8</v>
+      </c>
+      <c r="F937" t="s">
+        <v>12</v>
+      </c>
+      <c r="G937" t="s">
+        <v>10</v>
+      </c>
+      <c r="H937" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="938" spans="1:8">
       <c r="A938">
-        <v>395760</v>
+        <v>396227</v>
       </c>
       <c r="B938">
-        <v>171</v>
+        <v>971</v>
       </c>
       <c r="C938">
-        <v>173</v>
+        <v>974</v>
       </c>
       <c r="D938">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E938" t="s">
         <v>8</v>
       </c>
       <c r="F938" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G938" t="s">
         <v>10</v>
@@ -24893,16 +24888,16 @@
     </row>
     <row r="939" spans="1:8">
       <c r="A939">
-        <v>395762</v>
+        <v>396243</v>
       </c>
       <c r="B939">
-        <v>753</v>
+        <v>614</v>
       </c>
       <c r="C939">
-        <v>757</v>
+        <v>617</v>
       </c>
       <c r="D939">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E939" t="s">
         <v>8</v>
@@ -24919,22 +24914,22 @@
     </row>
     <row r="940" spans="1:8">
       <c r="A940">
-        <v>395773</v>
+        <v>396258</v>
       </c>
       <c r="B940">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="C940">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D940">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E940" t="s">
         <v>8</v>
       </c>
       <c r="F940" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G940" t="s">
         <v>10</v>
@@ -24945,16 +24940,16 @@
     </row>
     <row r="941" spans="1:8">
       <c r="A941">
-        <v>395817</v>
+        <v>396258</v>
       </c>
       <c r="B941">
-        <v>81</v>
+        <v>784</v>
       </c>
       <c r="C941">
-        <v>84</v>
+        <v>788</v>
       </c>
       <c r="D941">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E941" t="s">
         <v>8</v>
@@ -24970,49 +24965,49 @@
       </c>
     </row>
     <row r="942" spans="1:8">
-      <c r="A942">
-        <v>395817</v>
-      </c>
-      <c r="B942">
-        <v>238</v>
-      </c>
-      <c r="C942">
-        <v>242</v>
-      </c>
-      <c r="D942">
+      <c r="A942" s="2">
+        <v>396283</v>
+      </c>
+      <c r="B942" s="2">
+        <v>2060</v>
+      </c>
+      <c r="C942" s="2">
+        <v>2064</v>
+      </c>
+      <c r="D942" s="2">
         <v>5</v>
       </c>
-      <c r="E942" t="s">
-        <v>8</v>
-      </c>
-      <c r="F942" t="s">
-        <v>17</v>
-      </c>
-      <c r="G942" t="s">
-        <v>10</v>
-      </c>
-      <c r="H942" t="s">
-        <v>11</v>
+      <c r="E942" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F942" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G942" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H942" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="943" spans="1:8">
       <c r="A943">
-        <v>395817</v>
+        <v>396309</v>
       </c>
       <c r="B943">
-        <v>482</v>
+        <v>171</v>
       </c>
       <c r="C943">
-        <v>486</v>
+        <v>172</v>
       </c>
       <c r="D943">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E943" t="s">
         <v>8</v>
       </c>
       <c r="F943" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G943" t="s">
         <v>10</v>
@@ -25023,22 +25018,22 @@
     </row>
     <row r="944" spans="1:8">
       <c r="A944">
-        <v>395893</v>
+        <v>396309</v>
       </c>
       <c r="B944">
-        <v>684</v>
+        <v>229</v>
       </c>
       <c r="C944">
-        <v>686</v>
+        <v>233</v>
       </c>
       <c r="D944">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E944" t="s">
         <v>8</v>
       </c>
       <c r="F944" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G944" t="s">
         <v>10</v>
@@ -25049,22 +25044,22 @@
     </row>
     <row r="945" spans="1:8">
       <c r="A945">
-        <v>395893</v>
+        <v>396319</v>
       </c>
       <c r="B945">
-        <v>1008</v>
+        <v>182</v>
       </c>
       <c r="C945">
-        <v>1010</v>
+        <v>186</v>
       </c>
       <c r="D945">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E945" t="s">
         <v>8</v>
       </c>
       <c r="F945" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G945" t="s">
         <v>10</v>
@@ -25075,22 +25070,22 @@
     </row>
     <row r="946" spans="1:8">
       <c r="A946">
-        <v>395893</v>
+        <v>396335</v>
       </c>
       <c r="B946">
-        <v>1056</v>
+        <v>135</v>
       </c>
       <c r="C946">
-        <v>1058</v>
+        <v>136</v>
       </c>
       <c r="D946">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E946" t="s">
         <v>8</v>
       </c>
       <c r="F946" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G946" t="s">
         <v>10</v>
@@ -25101,22 +25096,22 @@
     </row>
     <row r="947" spans="1:8">
       <c r="A947">
-        <v>395893</v>
+        <v>396335</v>
       </c>
       <c r="B947">
-        <v>1173</v>
+        <v>1128</v>
       </c>
       <c r="C947">
-        <v>1178</v>
+        <v>1128</v>
       </c>
       <c r="D947">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E947" t="s">
         <v>8</v>
       </c>
       <c r="F947" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G947" t="s">
         <v>10</v>
@@ -25127,22 +25122,22 @@
     </row>
     <row r="948" spans="1:8">
       <c r="A948">
-        <v>395893</v>
+        <v>396337</v>
       </c>
       <c r="B948">
-        <v>1264</v>
+        <v>145</v>
       </c>
       <c r="C948">
-        <v>1267</v>
+        <v>147</v>
       </c>
       <c r="D948">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E948" t="s">
         <v>8</v>
       </c>
       <c r="F948" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G948" t="s">
         <v>10</v>
@@ -25153,16 +25148,16 @@
     </row>
     <row r="949" spans="1:8">
       <c r="A949">
-        <v>395893</v>
+        <v>396372</v>
       </c>
       <c r="B949">
-        <v>1356</v>
+        <v>67</v>
       </c>
       <c r="C949">
-        <v>1356</v>
+        <v>71</v>
       </c>
       <c r="D949">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E949" t="s">
         <v>8</v>
@@ -25179,22 +25174,22 @@
     </row>
     <row r="950" spans="1:8">
       <c r="A950">
-        <v>395893</v>
+        <v>396372</v>
       </c>
       <c r="B950">
-        <v>1416</v>
+        <v>240</v>
       </c>
       <c r="C950">
-        <v>1419</v>
+        <v>244</v>
       </c>
       <c r="D950">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E950" t="s">
         <v>8</v>
       </c>
       <c r="F950" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G950" t="s">
         <v>10</v>
@@ -25205,13 +25200,13 @@
     </row>
     <row r="951" spans="1:8">
       <c r="A951">
-        <v>395987</v>
+        <v>396372</v>
       </c>
       <c r="B951">
-        <v>55</v>
+        <v>618</v>
       </c>
       <c r="C951">
-        <v>58</v>
+        <v>621</v>
       </c>
       <c r="D951">
         <v>4</v>
@@ -25220,7 +25215,7 @@
         <v>8</v>
       </c>
       <c r="F951" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G951" t="s">
         <v>10</v>
@@ -25231,22 +25226,22 @@
     </row>
     <row r="952" spans="1:8">
       <c r="A952">
-        <v>395987</v>
+        <v>396372</v>
       </c>
       <c r="B952">
-        <v>872</v>
+        <v>1094</v>
       </c>
       <c r="C952">
-        <v>872</v>
+        <v>1095</v>
       </c>
       <c r="D952">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E952" t="s">
         <v>8</v>
       </c>
       <c r="F952" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G952" t="s">
         <v>10</v>
@@ -25257,22 +25252,22 @@
     </row>
     <row r="953" spans="1:8">
       <c r="A953">
-        <v>396008</v>
+        <v>396372</v>
       </c>
       <c r="B953">
-        <v>108</v>
+        <v>1138</v>
       </c>
       <c r="C953">
-        <v>113</v>
+        <v>1139</v>
       </c>
       <c r="D953">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E953" t="s">
         <v>8</v>
       </c>
       <c r="F953" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G953" t="s">
         <v>10</v>
@@ -25283,22 +25278,22 @@
     </row>
     <row r="954" spans="1:8">
       <c r="A954">
-        <v>396009</v>
+        <v>396372</v>
       </c>
       <c r="B954">
-        <v>695</v>
+        <v>1683</v>
       </c>
       <c r="C954">
-        <v>697</v>
+        <v>1683</v>
       </c>
       <c r="D954">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E954" t="s">
         <v>8</v>
       </c>
       <c r="F954" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G954" t="s">
         <v>10</v>
@@ -25309,22 +25304,22 @@
     </row>
     <row r="955" spans="1:8">
       <c r="A955">
-        <v>396009</v>
+        <v>396393</v>
       </c>
       <c r="B955">
-        <v>1423</v>
+        <v>1</v>
       </c>
       <c r="C955">
-        <v>1423</v>
+        <v>5</v>
       </c>
       <c r="D955">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E955" t="s">
         <v>8</v>
       </c>
       <c r="F955" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G955" t="s">
         <v>10</v>
@@ -25335,22 +25330,22 @@
     </row>
     <row r="956" spans="1:8">
       <c r="A956">
-        <v>396057</v>
+        <v>396397</v>
       </c>
       <c r="B956">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="C956">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="D956">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E956" t="s">
         <v>8</v>
       </c>
       <c r="F956" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G956" t="s">
         <v>10</v>
@@ -25361,22 +25356,22 @@
     </row>
     <row r="957" spans="1:8">
       <c r="A957">
-        <v>396096</v>
+        <v>396398</v>
       </c>
       <c r="B957">
-        <v>19</v>
+        <v>410</v>
       </c>
       <c r="C957">
-        <v>24</v>
+        <v>414</v>
       </c>
       <c r="D957">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E957" t="s">
         <v>8</v>
       </c>
       <c r="F957" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G957" t="s">
         <v>10</v>
@@ -25386,43 +25381,43 @@
       </c>
     </row>
     <row r="958" spans="1:8">
-      <c r="A958">
-        <v>396102</v>
-      </c>
-      <c r="B958">
-        <v>336</v>
-      </c>
-      <c r="C958">
-        <v>338</v>
-      </c>
-      <c r="D958">
-        <v>3</v>
-      </c>
-      <c r="E958" t="s">
-        <v>8</v>
-      </c>
-      <c r="F958" t="s">
-        <v>18</v>
-      </c>
-      <c r="G958" t="s">
-        <v>10</v>
-      </c>
-      <c r="H958" t="s">
-        <v>11</v>
+      <c r="A958" s="2">
+        <v>396398</v>
+      </c>
+      <c r="B958" s="2">
+        <v>1036</v>
+      </c>
+      <c r="C958" s="2">
+        <v>1037</v>
+      </c>
+      <c r="D958" s="2">
+        <v>2</v>
+      </c>
+      <c r="E958" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F958" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G958" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H958" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="959" spans="1:8">
       <c r="A959">
-        <v>396102</v>
+        <v>396405</v>
       </c>
       <c r="B959">
-        <v>709</v>
+        <v>310</v>
       </c>
       <c r="C959">
-        <v>719</v>
+        <v>310</v>
       </c>
       <c r="D959">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E959" t="s">
         <v>8</v>
@@ -25439,22 +25434,22 @@
     </row>
     <row r="960" spans="1:8">
       <c r="A960">
-        <v>396127</v>
+        <v>396405</v>
       </c>
       <c r="B960">
-        <v>202</v>
+        <v>400</v>
       </c>
       <c r="C960">
-        <v>207</v>
+        <v>400</v>
       </c>
       <c r="D960">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E960" t="s">
         <v>8</v>
       </c>
       <c r="F960" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G960" t="s">
         <v>10</v>
@@ -25465,22 +25460,22 @@
     </row>
     <row r="961" spans="1:8">
       <c r="A961">
-        <v>396127</v>
+        <v>396405</v>
       </c>
       <c r="B961">
-        <v>367</v>
+        <v>558</v>
       </c>
       <c r="C961">
-        <v>369</v>
+        <v>558</v>
       </c>
       <c r="D961">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E961" t="s">
         <v>8</v>
       </c>
       <c r="F961" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G961" t="s">
         <v>10</v>
@@ -25491,13 +25486,13 @@
     </row>
     <row r="962" spans="1:8">
       <c r="A962">
-        <v>396127</v>
+        <v>396405</v>
       </c>
       <c r="B962">
-        <v>1202</v>
+        <v>761</v>
       </c>
       <c r="C962">
-        <v>1203</v>
+        <v>762</v>
       </c>
       <c r="D962">
         <v>2</v>
@@ -25506,7 +25501,7 @@
         <v>8</v>
       </c>
       <c r="F962" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G962" t="s">
         <v>10</v>
@@ -25517,16 +25512,16 @@
     </row>
     <row r="963" spans="1:8">
       <c r="A963">
-        <v>396127</v>
+        <v>396405</v>
       </c>
       <c r="B963">
-        <v>1756</v>
+        <v>775</v>
       </c>
       <c r="C963">
-        <v>1758</v>
+        <v>847</v>
       </c>
       <c r="D963">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E963" t="s">
         <v>8</v>
@@ -25543,16 +25538,16 @@
     </row>
     <row r="964" spans="1:8">
       <c r="A964">
-        <v>396134</v>
+        <v>396763</v>
       </c>
       <c r="B964">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C964">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D964">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E964" t="s">
         <v>8</v>
@@ -25569,22 +25564,22 @@
     </row>
     <row r="965" spans="1:8">
       <c r="A965">
-        <v>396134</v>
+        <v>396805</v>
       </c>
       <c r="B965">
-        <v>992</v>
+        <v>485</v>
       </c>
       <c r="C965">
-        <v>995</v>
+        <v>489</v>
       </c>
       <c r="D965">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E965" t="s">
         <v>8</v>
       </c>
       <c r="F965" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G965" t="s">
         <v>10</v>
@@ -25594,49 +25589,49 @@
       </c>
     </row>
     <row r="966" spans="1:8">
-      <c r="A966" s="2">
-        <v>396134</v>
-      </c>
-      <c r="B966" s="2">
-        <v>1033</v>
-      </c>
-      <c r="C966" s="2">
-        <v>1037</v>
-      </c>
-      <c r="D966" s="2">
-        <v>5</v>
-      </c>
-      <c r="E966" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F966" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G966" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H966" s="2" t="s">
-        <v>14</v>
+      <c r="A966">
+        <v>396805</v>
+      </c>
+      <c r="B966">
+        <v>761</v>
+      </c>
+      <c r="C966">
+        <v>763</v>
+      </c>
+      <c r="D966">
+        <v>3</v>
+      </c>
+      <c r="E966" t="s">
+        <v>8</v>
+      </c>
+      <c r="F966" t="s">
+        <v>15</v>
+      </c>
+      <c r="G966" t="s">
+        <v>10</v>
+      </c>
+      <c r="H966" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="967" spans="1:8">
       <c r="A967">
-        <v>396148</v>
+        <v>396805</v>
       </c>
       <c r="B967">
-        <v>169</v>
+        <v>818</v>
       </c>
       <c r="C967">
-        <v>172</v>
+        <v>819</v>
       </c>
       <c r="D967">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E967" t="s">
         <v>8</v>
       </c>
       <c r="F967" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G967" t="s">
         <v>10</v>
@@ -25647,13 +25642,13 @@
     </row>
     <row r="968" spans="1:8">
       <c r="A968">
-        <v>396154</v>
+        <v>396805</v>
       </c>
       <c r="B968">
-        <v>73</v>
+        <v>1131</v>
       </c>
       <c r="C968">
-        <v>74</v>
+        <v>1132</v>
       </c>
       <c r="D968">
         <v>2</v>
@@ -25662,7 +25657,7 @@
         <v>8</v>
       </c>
       <c r="F968" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G968" t="s">
         <v>10</v>
@@ -25673,22 +25668,22 @@
     </row>
     <row r="969" spans="1:8">
       <c r="A969">
-        <v>396157</v>
+        <v>396805</v>
       </c>
       <c r="B969">
-        <v>125</v>
+        <v>1252</v>
       </c>
       <c r="C969">
-        <v>126</v>
+        <v>1255</v>
       </c>
       <c r="D969">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E969" t="s">
         <v>8</v>
       </c>
       <c r="F969" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G969" t="s">
         <v>10</v>
@@ -25699,22 +25694,22 @@
     </row>
     <row r="970" spans="1:8">
       <c r="A970">
-        <v>396158</v>
+        <v>396819</v>
       </c>
       <c r="B970">
-        <v>141</v>
+        <v>406</v>
       </c>
       <c r="C970">
-        <v>141</v>
+        <v>410</v>
       </c>
       <c r="D970">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E970" t="s">
         <v>8</v>
       </c>
       <c r="F970" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G970" t="s">
         <v>10</v>
@@ -25725,22 +25720,22 @@
     </row>
     <row r="971" spans="1:8">
       <c r="A971">
-        <v>396158</v>
+        <v>396844</v>
       </c>
       <c r="B971">
-        <v>324</v>
+        <v>215</v>
       </c>
       <c r="C971">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="D971">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E971" t="s">
         <v>8</v>
       </c>
       <c r="F971" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G971" t="s">
         <v>10</v>
@@ -25751,22 +25746,22 @@
     </row>
     <row r="972" spans="1:8">
       <c r="A972">
-        <v>396158</v>
+        <v>396845</v>
       </c>
       <c r="B972">
-        <v>378</v>
+        <v>483</v>
       </c>
       <c r="C972">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="D972">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E972" t="s">
         <v>8</v>
       </c>
       <c r="F972" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G972" t="s">
         <v>10</v>
@@ -25777,22 +25772,22 @@
     </row>
     <row r="973" spans="1:8">
       <c r="A973">
-        <v>396158</v>
+        <v>396850</v>
       </c>
       <c r="B973">
-        <v>1189</v>
+        <v>53</v>
       </c>
       <c r="C973">
-        <v>1193</v>
+        <v>58</v>
       </c>
       <c r="D973">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E973" t="s">
         <v>8</v>
       </c>
       <c r="F973" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G973" t="s">
         <v>10</v>
@@ -25802,40 +25797,40 @@
       </c>
     </row>
     <row r="974" spans="1:8">
-      <c r="A974">
-        <v>396177</v>
-      </c>
-      <c r="B974">
-        <v>82</v>
-      </c>
-      <c r="C974">
-        <v>83</v>
-      </c>
-      <c r="D974">
-        <v>2</v>
-      </c>
-      <c r="E974" t="s">
-        <v>8</v>
-      </c>
-      <c r="F974" t="s">
-        <v>16</v>
-      </c>
-      <c r="G974" t="s">
-        <v>10</v>
-      </c>
-      <c r="H974" t="s">
-        <v>11</v>
+      <c r="A974" s="2">
+        <v>396870</v>
+      </c>
+      <c r="B974" s="2">
+        <v>823</v>
+      </c>
+      <c r="C974" s="2">
+        <v>825</v>
+      </c>
+      <c r="D974" s="2">
+        <v>3</v>
+      </c>
+      <c r="E974" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F974" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G974" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H974" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="975" spans="1:8">
       <c r="A975">
-        <v>396180</v>
+        <v>396871</v>
       </c>
       <c r="B975">
-        <v>411</v>
+        <v>527</v>
       </c>
       <c r="C975">
-        <v>412</v>
+        <v>528</v>
       </c>
       <c r="D975">
         <v>2</v>
@@ -25844,7 +25839,7 @@
         <v>8</v>
       </c>
       <c r="F975" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G975" t="s">
         <v>10</v>
@@ -25855,68 +25850,68 @@
     </row>
     <row r="976" spans="1:8">
       <c r="A976">
-        <v>396180</v>
+        <v>396871</v>
       </c>
       <c r="B976">
-        <v>587</v>
+        <v>730</v>
       </c>
       <c r="C976">
-        <v>591</v>
+        <v>732</v>
       </c>
       <c r="D976">
+        <v>3</v>
+      </c>
+      <c r="E976" t="s">
+        <v>8</v>
+      </c>
+      <c r="F976" t="s">
+        <v>16</v>
+      </c>
+      <c r="G976" t="s">
+        <v>10</v>
+      </c>
+      <c r="H976" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="977" spans="1:8">
+      <c r="A977" s="2">
+        <v>396871</v>
+      </c>
+      <c r="B977" s="2">
+        <v>743</v>
+      </c>
+      <c r="C977" s="2">
+        <v>747</v>
+      </c>
+      <c r="D977" s="2">
         <v>5</v>
       </c>
-      <c r="E976" t="s">
-        <v>8</v>
-      </c>
-      <c r="F976" t="s">
-        <v>18</v>
-      </c>
-      <c r="G976" t="s">
-        <v>10</v>
-      </c>
-      <c r="H976" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="977" spans="1:8">
-      <c r="A977">
-        <v>396180</v>
-      </c>
-      <c r="B977">
-        <v>660</v>
-      </c>
-      <c r="C977">
-        <v>665</v>
-      </c>
-      <c r="D977">
-        <v>6</v>
-      </c>
-      <c r="E977" t="s">
-        <v>8</v>
-      </c>
-      <c r="F977" t="s">
-        <v>12</v>
-      </c>
-      <c r="G977" t="s">
-        <v>10</v>
-      </c>
-      <c r="H977" t="s">
-        <v>11</v>
+      <c r="E977" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F977" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G977" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H977" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="978" spans="1:8">
       <c r="A978" s="2">
-        <v>396180</v>
+        <v>396871</v>
       </c>
       <c r="B978" s="2">
-        <v>852</v>
+        <v>799</v>
       </c>
       <c r="C978" s="2">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="D978" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E978" s="2" t="s">
         <v>8</v>
@@ -25932,40 +25927,40 @@
       </c>
     </row>
     <row r="979" spans="1:8">
-      <c r="A979">
-        <v>396185</v>
-      </c>
-      <c r="B979">
-        <v>342</v>
-      </c>
-      <c r="C979">
-        <v>344</v>
-      </c>
-      <c r="D979">
-        <v>3</v>
-      </c>
-      <c r="E979" t="s">
-        <v>8</v>
-      </c>
-      <c r="F979" t="s">
-        <v>16</v>
-      </c>
-      <c r="G979" t="s">
-        <v>10</v>
-      </c>
-      <c r="H979" t="s">
-        <v>11</v>
+      <c r="A979" s="2">
+        <v>396872</v>
+      </c>
+      <c r="B979" s="2">
+        <v>1</v>
+      </c>
+      <c r="C979" s="2">
+        <v>14</v>
+      </c>
+      <c r="D979" s="2">
+        <v>14</v>
+      </c>
+      <c r="E979" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F979" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G979" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H979" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="980" spans="1:8">
       <c r="A980">
-        <v>396191</v>
+        <v>396872</v>
       </c>
       <c r="B980">
-        <v>394</v>
+        <v>15</v>
       </c>
       <c r="C980">
-        <v>395</v>
+        <v>16</v>
       </c>
       <c r="D980">
         <v>2</v>
@@ -25974,7 +25969,7 @@
         <v>8</v>
       </c>
       <c r="F980" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G980" t="s">
         <v>10</v>
@@ -25985,22 +25980,22 @@
     </row>
     <row r="981" spans="1:8">
       <c r="A981">
-        <v>396191</v>
+        <v>396891</v>
       </c>
       <c r="B981">
-        <v>517</v>
+        <v>259</v>
       </c>
       <c r="C981">
-        <v>518</v>
+        <v>261</v>
       </c>
       <c r="D981">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E981" t="s">
         <v>8</v>
       </c>
       <c r="F981" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G981" t="s">
         <v>10</v>
@@ -26010,40 +26005,40 @@
       </c>
     </row>
     <row r="982" spans="1:8">
-      <c r="A982">
-        <v>396191</v>
-      </c>
-      <c r="B982">
-        <v>607</v>
-      </c>
-      <c r="C982">
-        <v>607</v>
-      </c>
-      <c r="D982">
+      <c r="A982" s="2">
+        <v>396892</v>
+      </c>
+      <c r="B982" s="2">
+        <v>994</v>
+      </c>
+      <c r="C982" s="2">
+        <v>994</v>
+      </c>
+      <c r="D982" s="2">
         <v>1</v>
       </c>
-      <c r="E982" t="s">
-        <v>8</v>
-      </c>
-      <c r="F982" t="s">
-        <v>9</v>
-      </c>
-      <c r="G982" t="s">
-        <v>10</v>
-      </c>
-      <c r="H982" t="s">
-        <v>11</v>
+      <c r="E982" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F982" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G982" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H982" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="983" spans="1:8">
       <c r="A983">
-        <v>396191</v>
+        <v>396892</v>
       </c>
       <c r="B983">
-        <v>1737</v>
+        <v>1307</v>
       </c>
       <c r="C983">
-        <v>1741</v>
+        <v>1311</v>
       </c>
       <c r="D983">
         <v>5</v>
@@ -26052,7 +26047,7 @@
         <v>8</v>
       </c>
       <c r="F983" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G983" t="s">
         <v>10</v>
@@ -26063,22 +26058,22 @@
     </row>
     <row r="984" spans="1:8">
       <c r="A984">
-        <v>396227</v>
+        <v>396952</v>
       </c>
       <c r="B984">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C984">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D984">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E984" t="s">
         <v>8</v>
       </c>
       <c r="F984" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G984" t="s">
         <v>10</v>
@@ -26089,13 +26084,13 @@
     </row>
     <row r="985" spans="1:8">
       <c r="A985">
-        <v>396227</v>
+        <v>396964</v>
       </c>
       <c r="B985">
-        <v>971</v>
+        <v>96</v>
       </c>
       <c r="C985">
-        <v>974</v>
+        <v>99</v>
       </c>
       <c r="D985">
         <v>4</v>
@@ -26104,7 +26099,7 @@
         <v>8</v>
       </c>
       <c r="F985" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G985" t="s">
         <v>10</v>
@@ -26115,22 +26110,22 @@
     </row>
     <row r="986" spans="1:8">
       <c r="A986">
-        <v>396243</v>
+        <v>396964</v>
       </c>
       <c r="B986">
-        <v>614</v>
+        <v>445</v>
       </c>
       <c r="C986">
-        <v>617</v>
+        <v>446</v>
       </c>
       <c r="D986">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E986" t="s">
         <v>8</v>
       </c>
       <c r="F986" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G986" t="s">
         <v>10</v>
@@ -26140,49 +26135,49 @@
       </c>
     </row>
     <row r="987" spans="1:8">
-      <c r="A987">
-        <v>396258</v>
-      </c>
-      <c r="B987">
-        <v>329</v>
-      </c>
-      <c r="C987">
-        <v>334</v>
-      </c>
-      <c r="D987">
-        <v>6</v>
-      </c>
-      <c r="E987" t="s">
-        <v>8</v>
-      </c>
-      <c r="F987" t="s">
-        <v>17</v>
-      </c>
-      <c r="G987" t="s">
-        <v>10</v>
-      </c>
-      <c r="H987" t="s">
-        <v>11</v>
+      <c r="A987" s="2">
+        <v>396964</v>
+      </c>
+      <c r="B987" s="2">
+        <v>513</v>
+      </c>
+      <c r="C987" s="2">
+        <v>514</v>
+      </c>
+      <c r="D987" s="2">
+        <v>2</v>
+      </c>
+      <c r="E987" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F987" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G987" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H987" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="988" spans="1:8">
       <c r="A988">
-        <v>396258</v>
+        <v>396965</v>
       </c>
       <c r="B988">
-        <v>784</v>
+        <v>27</v>
       </c>
       <c r="C988">
-        <v>788</v>
+        <v>32</v>
       </c>
       <c r="D988">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E988" t="s">
         <v>8</v>
       </c>
       <c r="F988" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G988" t="s">
         <v>10</v>
@@ -26192,49 +26187,49 @@
       </c>
     </row>
     <row r="989" spans="1:8">
-      <c r="A989" s="2">
-        <v>396283</v>
-      </c>
-      <c r="B989" s="2">
-        <v>2060</v>
-      </c>
-      <c r="C989" s="2">
-        <v>2064</v>
-      </c>
-      <c r="D989" s="2">
-        <v>5</v>
-      </c>
-      <c r="E989" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F989" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G989" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H989" s="2" t="s">
-        <v>14</v>
+      <c r="A989">
+        <v>396988</v>
+      </c>
+      <c r="B989">
+        <v>1245</v>
+      </c>
+      <c r="C989">
+        <v>1250</v>
+      </c>
+      <c r="D989">
+        <v>6</v>
+      </c>
+      <c r="E989" t="s">
+        <v>8</v>
+      </c>
+      <c r="F989" t="s">
+        <v>12</v>
+      </c>
+      <c r="G989" t="s">
+        <v>10</v>
+      </c>
+      <c r="H989" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="990" spans="1:8">
       <c r="A990">
-        <v>396309</v>
+        <v>396988</v>
       </c>
       <c r="B990">
-        <v>171</v>
+        <v>1269</v>
       </c>
       <c r="C990">
-        <v>172</v>
+        <v>1271</v>
       </c>
       <c r="D990">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E990" t="s">
         <v>8</v>
       </c>
       <c r="F990" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G990" t="s">
         <v>10</v>
@@ -26245,13 +26240,13 @@
     </row>
     <row r="991" spans="1:8">
       <c r="A991">
-        <v>396309</v>
+        <v>396999</v>
       </c>
       <c r="B991">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="C991">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="D991">
         <v>5</v>
@@ -26271,13 +26266,13 @@
     </row>
     <row r="992" spans="1:8">
       <c r="A992">
-        <v>396319</v>
+        <v>397033</v>
       </c>
       <c r="B992">
-        <v>182</v>
+        <v>374</v>
       </c>
       <c r="C992">
-        <v>186</v>
+        <v>378</v>
       </c>
       <c r="D992">
         <v>5</v>
@@ -26286,7 +26281,7 @@
         <v>8</v>
       </c>
       <c r="F992" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G992" t="s">
         <v>10</v>
@@ -26297,22 +26292,22 @@
     </row>
     <row r="993" spans="1:8">
       <c r="A993">
-        <v>396335</v>
+        <v>397033</v>
       </c>
       <c r="B993">
-        <v>135</v>
+        <v>567</v>
       </c>
       <c r="C993">
-        <v>136</v>
+        <v>569</v>
       </c>
       <c r="D993">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E993" t="s">
         <v>8</v>
       </c>
       <c r="F993" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G993" t="s">
         <v>10</v>
@@ -26323,16 +26318,16 @@
     </row>
     <row r="994" spans="1:8">
       <c r="A994">
-        <v>396335</v>
+        <v>397033</v>
       </c>
       <c r="B994">
-        <v>1128</v>
+        <v>1042</v>
       </c>
       <c r="C994">
-        <v>1128</v>
+        <v>1045</v>
       </c>
       <c r="D994">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E994" t="s">
         <v>8</v>
@@ -26349,13 +26344,13 @@
     </row>
     <row r="995" spans="1:8">
       <c r="A995">
-        <v>396337</v>
+        <v>397033</v>
       </c>
       <c r="B995">
-        <v>145</v>
+        <v>1101</v>
       </c>
       <c r="C995">
-        <v>147</v>
+        <v>1103</v>
       </c>
       <c r="D995">
         <v>3</v>
@@ -26364,7 +26359,7 @@
         <v>8</v>
       </c>
       <c r="F995" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G995" t="s">
         <v>10</v>
@@ -26375,22 +26370,22 @@
     </row>
     <row r="996" spans="1:8">
       <c r="A996">
-        <v>396372</v>
+        <v>397033</v>
       </c>
       <c r="B996">
-        <v>67</v>
+        <v>1215</v>
       </c>
       <c r="C996">
-        <v>71</v>
+        <v>1218</v>
       </c>
       <c r="D996">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E996" t="s">
         <v>8</v>
       </c>
       <c r="F996" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G996" t="s">
         <v>10</v>
@@ -26401,22 +26396,22 @@
     </row>
     <row r="997" spans="1:8">
       <c r="A997">
-        <v>396372</v>
+        <v>397050</v>
       </c>
       <c r="B997">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="C997">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="D997">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E997" t="s">
         <v>8</v>
       </c>
       <c r="F997" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G997" t="s">
         <v>10</v>
@@ -26427,22 +26422,22 @@
     </row>
     <row r="998" spans="1:8">
       <c r="A998">
-        <v>396372</v>
+        <v>397097</v>
       </c>
       <c r="B998">
-        <v>618</v>
+        <v>324</v>
       </c>
       <c r="C998">
-        <v>621</v>
+        <v>326</v>
       </c>
       <c r="D998">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E998" t="s">
         <v>8</v>
       </c>
       <c r="F998" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G998" t="s">
         <v>10</v>
@@ -26453,22 +26448,22 @@
     </row>
     <row r="999" spans="1:8">
       <c r="A999">
-        <v>396372</v>
+        <v>397097</v>
       </c>
       <c r="B999">
-        <v>1094</v>
+        <v>414</v>
       </c>
       <c r="C999">
-        <v>1095</v>
+        <v>416</v>
       </c>
       <c r="D999">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E999" t="s">
         <v>8</v>
       </c>
       <c r="F999" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G999" t="s">
         <v>10</v>
@@ -26479,22 +26474,22 @@
     </row>
     <row r="1000" spans="1:8">
       <c r="A1000">
-        <v>396372</v>
+        <v>397097</v>
       </c>
       <c r="B1000">
-        <v>1138</v>
+        <v>476</v>
       </c>
       <c r="C1000">
-        <v>1139</v>
+        <v>479</v>
       </c>
       <c r="D1000">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1000" t="s">
         <v>8</v>
       </c>
       <c r="F1000" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G1000" t="s">
         <v>10</v>
@@ -26505,22 +26500,22 @@
     </row>
     <row r="1001" spans="1:8">
       <c r="A1001">
-        <v>396372</v>
+        <v>397106</v>
       </c>
       <c r="B1001">
-        <v>1683</v>
+        <v>129</v>
       </c>
       <c r="C1001">
-        <v>1683</v>
+        <v>131</v>
       </c>
       <c r="D1001">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1001" t="s">
         <v>8</v>
       </c>
       <c r="F1001" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G1001" t="s">
         <v>10</v>
@@ -26531,22 +26526,22 @@
     </row>
     <row r="1002" spans="1:8">
       <c r="A1002">
-        <v>396393</v>
+        <v>397106</v>
       </c>
       <c r="B1002">
-        <v>1</v>
+        <v>379</v>
       </c>
       <c r="C1002">
-        <v>5</v>
+        <v>384</v>
       </c>
       <c r="D1002">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1002" t="s">
         <v>8</v>
       </c>
       <c r="F1002" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G1002" t="s">
         <v>10</v>
@@ -26557,22 +26552,22 @@
     </row>
     <row r="1003" spans="1:8">
       <c r="A1003">
-        <v>396397</v>
+        <v>397186</v>
       </c>
       <c r="B1003">
-        <v>266</v>
+        <v>438</v>
       </c>
       <c r="C1003">
-        <v>270</v>
+        <v>441</v>
       </c>
       <c r="D1003">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1003" t="s">
         <v>8</v>
       </c>
       <c r="F1003" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G1003" t="s">
         <v>10</v>
@@ -26583,22 +26578,22 @@
     </row>
     <row r="1004" spans="1:8">
       <c r="A1004">
-        <v>396398</v>
+        <v>397190</v>
       </c>
       <c r="B1004">
-        <v>410</v>
+        <v>81</v>
       </c>
       <c r="C1004">
-        <v>414</v>
+        <v>84</v>
       </c>
       <c r="D1004">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1004" t="s">
         <v>8</v>
       </c>
       <c r="F1004" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G1004" t="s">
         <v>10</v>
@@ -26609,22 +26604,22 @@
     </row>
     <row r="1005" spans="1:8">
       <c r="A1005" s="2">
-        <v>396398</v>
+        <v>397190</v>
       </c>
       <c r="B1005" s="2">
-        <v>1036</v>
+        <v>85</v>
       </c>
       <c r="C1005" s="2">
-        <v>1037</v>
+        <v>85</v>
       </c>
       <c r="D1005" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1005" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F1005" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G1005" s="2" t="s">
         <v>10</v>
@@ -26634,75 +26629,75 @@
       </c>
     </row>
     <row r="1006" spans="1:8">
-      <c r="A1006">
-        <v>396405</v>
-      </c>
-      <c r="B1006">
-        <v>310</v>
-      </c>
-      <c r="C1006">
-        <v>310</v>
-      </c>
-      <c r="D1006">
-        <v>1</v>
-      </c>
-      <c r="E1006" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1006" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1006" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1006" t="s">
-        <v>11</v>
+      <c r="A1006" s="2">
+        <v>397191</v>
+      </c>
+      <c r="B1006" s="2">
+        <v>11</v>
+      </c>
+      <c r="C1006" s="2">
+        <v>43</v>
+      </c>
+      <c r="D1006" s="2">
+        <v>33</v>
+      </c>
+      <c r="E1006" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1006" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1006" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1006" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
-      <c r="A1007">
-        <v>396405</v>
-      </c>
-      <c r="B1007">
-        <v>400</v>
-      </c>
-      <c r="C1007">
-        <v>400</v>
-      </c>
-      <c r="D1007">
-        <v>1</v>
-      </c>
-      <c r="E1007" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1007" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1007" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1007" t="s">
-        <v>11</v>
+      <c r="A1007" s="2">
+        <v>397191</v>
+      </c>
+      <c r="B1007" s="2">
+        <v>51</v>
+      </c>
+      <c r="C1007" s="2">
+        <v>52</v>
+      </c>
+      <c r="D1007" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1007" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1007" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1007" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1007" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
       <c r="A1008">
-        <v>396405</v>
+        <v>397209</v>
       </c>
       <c r="B1008">
-        <v>558</v>
+        <v>497</v>
       </c>
       <c r="C1008">
-        <v>558</v>
+        <v>682</v>
       </c>
       <c r="D1008">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="E1008" t="s">
         <v>8</v>
       </c>
       <c r="F1008" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G1008" t="s">
         <v>10</v>
@@ -26713,22 +26708,22 @@
     </row>
     <row r="1009" spans="1:8">
       <c r="A1009">
-        <v>396405</v>
+        <v>397209</v>
       </c>
       <c r="B1009">
-        <v>761</v>
+        <v>683</v>
       </c>
       <c r="C1009">
-        <v>762</v>
+        <v>685</v>
       </c>
       <c r="D1009">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1009" t="s">
         <v>8</v>
       </c>
       <c r="F1009" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G1009" t="s">
         <v>10</v>
@@ -26739,27 +26734,1301 @@
     </row>
     <row r="1010" spans="1:8">
       <c r="A1010">
-        <v>396405</v>
+        <v>397209</v>
       </c>
       <c r="B1010">
-        <v>775</v>
+        <v>686</v>
       </c>
       <c r="C1010">
-        <v>847</v>
+        <v>1137</v>
       </c>
       <c r="D1010">
-        <v>73</v>
+        <v>452</v>
       </c>
       <c r="E1010" t="s">
         <v>8</v>
       </c>
       <c r="F1010" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1010" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1010" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:8">
+      <c r="A1011">
+        <v>397209</v>
+      </c>
+      <c r="B1011">
+        <v>1138</v>
+      </c>
+      <c r="C1011">
+        <v>1141</v>
+      </c>
+      <c r="D1011">
+        <v>4</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1011" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1011" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:8">
+      <c r="A1012">
+        <v>397209</v>
+      </c>
+      <c r="B1012">
+        <v>1142</v>
+      </c>
+      <c r="C1012">
+        <v>1150</v>
+      </c>
+      <c r="D1012">
+        <v>9</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1012" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1012" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:8">
+      <c r="A1013">
+        <v>397246</v>
+      </c>
+      <c r="B1013">
+        <v>334</v>
+      </c>
+      <c r="C1013">
+        <v>336</v>
+      </c>
+      <c r="D1013">
+        <v>3</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1013" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1013" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:8">
+      <c r="A1014">
+        <v>397249</v>
+      </c>
+      <c r="B1014">
+        <v>55</v>
+      </c>
+      <c r="C1014">
+        <v>57</v>
+      </c>
+      <c r="D1014">
+        <v>3</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1014" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1014" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:8">
+      <c r="A1015">
+        <v>397253</v>
+      </c>
+      <c r="B1015">
+        <v>47</v>
+      </c>
+      <c r="C1015">
+        <v>48</v>
+      </c>
+      <c r="D1015">
+        <v>2</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1015" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1015" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:8">
+      <c r="A1016">
+        <v>397254</v>
+      </c>
+      <c r="B1016">
+        <v>1</v>
+      </c>
+      <c r="C1016">
+        <v>5</v>
+      </c>
+      <c r="D1016">
+        <v>5</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1016" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1016" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:8">
+      <c r="A1017">
+        <v>397292</v>
+      </c>
+      <c r="B1017">
+        <v>1058</v>
+      </c>
+      <c r="C1017">
+        <v>1059</v>
+      </c>
+      <c r="D1017">
+        <v>2</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1017" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1017" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:8">
+      <c r="A1018">
+        <v>397294</v>
+      </c>
+      <c r="B1018">
+        <v>103</v>
+      </c>
+      <c r="C1018">
+        <v>105</v>
+      </c>
+      <c r="D1018">
+        <v>3</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1018" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1018" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:8">
+      <c r="A1019">
+        <v>397332</v>
+      </c>
+      <c r="B1019">
+        <v>433</v>
+      </c>
+      <c r="C1019">
+        <v>437</v>
+      </c>
+      <c r="D1019">
+        <v>5</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1019" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:8">
+      <c r="A1020">
+        <v>397332</v>
+      </c>
+      <c r="B1020">
+        <v>1165</v>
+      </c>
+      <c r="C1020">
+        <v>1170</v>
+      </c>
+      <c r="D1020">
+        <v>6</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1020" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1020" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:8">
+      <c r="A1021">
+        <v>397332</v>
+      </c>
+      <c r="B1021">
+        <v>1194</v>
+      </c>
+      <c r="C1021">
+        <v>1196</v>
+      </c>
+      <c r="D1021">
+        <v>3</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1021" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1021" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:8">
+      <c r="A1022">
+        <v>397332</v>
+      </c>
+      <c r="B1022">
+        <v>1353</v>
+      </c>
+      <c r="C1022">
+        <v>1357</v>
+      </c>
+      <c r="D1022">
+        <v>5</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1022" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1022" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:8">
+      <c r="A1023">
+        <v>397347</v>
+      </c>
+      <c r="B1023">
+        <v>234</v>
+      </c>
+      <c r="C1023">
+        <v>235</v>
+      </c>
+      <c r="D1023">
+        <v>2</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1023" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:8">
+      <c r="A1024">
+        <v>397377</v>
+      </c>
+      <c r="B1024">
+        <v>707</v>
+      </c>
+      <c r="C1024">
+        <v>707</v>
+      </c>
+      <c r="D1024">
+        <v>1</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1024" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:8">
+      <c r="A1025">
+        <v>397384</v>
+      </c>
+      <c r="B1025">
+        <v>52</v>
+      </c>
+      <c r="C1025">
+        <v>53</v>
+      </c>
+      <c r="D1025">
+        <v>2</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1025" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:8">
+      <c r="A1026">
+        <v>397384</v>
+      </c>
+      <c r="B1026">
+        <v>91</v>
+      </c>
+      <c r="C1026">
+        <v>95</v>
+      </c>
+      <c r="D1026">
+        <v>5</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1026" t="s">
         <v>16</v>
       </c>
-      <c r="G1010" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1010" t="s">
+      <c r="G1026" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1026" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:8">
+      <c r="A1027">
+        <v>397384</v>
+      </c>
+      <c r="B1027">
+        <v>291</v>
+      </c>
+      <c r="C1027">
+        <v>294</v>
+      </c>
+      <c r="D1027">
+        <v>4</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1027" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:8">
+      <c r="A1028">
+        <v>397414</v>
+      </c>
+      <c r="B1028">
+        <v>94</v>
+      </c>
+      <c r="C1028">
+        <v>95</v>
+      </c>
+      <c r="D1028">
+        <v>2</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1028" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1028" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:8">
+      <c r="A1029">
+        <v>397414</v>
+      </c>
+      <c r="B1029">
+        <v>150</v>
+      </c>
+      <c r="C1029">
+        <v>153</v>
+      </c>
+      <c r="D1029">
+        <v>4</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1029" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:8">
+      <c r="A1030">
+        <v>397414</v>
+      </c>
+      <c r="B1030">
+        <v>228</v>
+      </c>
+      <c r="C1030">
+        <v>232</v>
+      </c>
+      <c r="D1030">
+        <v>5</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1030" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1030" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:8">
+      <c r="A1031">
+        <v>397414</v>
+      </c>
+      <c r="B1031">
+        <v>858</v>
+      </c>
+      <c r="C1031">
+        <v>859</v>
+      </c>
+      <c r="D1031">
+        <v>2</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1031" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:8">
+      <c r="A1032">
+        <v>397414</v>
+      </c>
+      <c r="B1032">
+        <v>962</v>
+      </c>
+      <c r="C1032">
+        <v>964</v>
+      </c>
+      <c r="D1032">
+        <v>3</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1032" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1032" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:8">
+      <c r="A1033">
+        <v>397414</v>
+      </c>
+      <c r="B1033">
+        <v>1141</v>
+      </c>
+      <c r="C1033">
+        <v>1142</v>
+      </c>
+      <c r="D1033">
+        <v>2</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1033" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:8">
+      <c r="A1034">
+        <v>397432</v>
+      </c>
+      <c r="B1034">
+        <v>84</v>
+      </c>
+      <c r="C1034">
+        <v>86</v>
+      </c>
+      <c r="D1034">
+        <v>3</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1034" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1034" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:8">
+      <c r="A1035">
+        <v>397432</v>
+      </c>
+      <c r="B1035">
+        <v>669</v>
+      </c>
+      <c r="C1035">
+        <v>669</v>
+      </c>
+      <c r="D1035">
+        <v>1</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1035" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:8">
+      <c r="A1036">
+        <v>397446</v>
+      </c>
+      <c r="B1036">
+        <v>10</v>
+      </c>
+      <c r="C1036">
+        <v>10</v>
+      </c>
+      <c r="D1036">
+        <v>1</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1036" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1036" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:8">
+      <c r="A1037">
+        <v>397449</v>
+      </c>
+      <c r="B1037">
+        <v>227</v>
+      </c>
+      <c r="C1037">
+        <v>231</v>
+      </c>
+      <c r="D1037">
+        <v>5</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1037" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:8">
+      <c r="A1038">
+        <v>397452</v>
+      </c>
+      <c r="B1038">
+        <v>207</v>
+      </c>
+      <c r="C1038">
+        <v>210</v>
+      </c>
+      <c r="D1038">
+        <v>4</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1038" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:8">
+      <c r="A1039">
+        <v>397453</v>
+      </c>
+      <c r="B1039">
+        <v>15</v>
+      </c>
+      <c r="C1039">
+        <v>16</v>
+      </c>
+      <c r="D1039">
+        <v>2</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1039" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8">
+      <c r="A1040">
+        <v>397457</v>
+      </c>
+      <c r="B1040">
+        <v>108</v>
+      </c>
+      <c r="C1040">
+        <v>111</v>
+      </c>
+      <c r="D1040">
+        <v>4</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1040" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8">
+      <c r="A1041">
+        <v>397457</v>
+      </c>
+      <c r="B1041">
+        <v>187</v>
+      </c>
+      <c r="C1041">
+        <v>189</v>
+      </c>
+      <c r="D1041">
+        <v>3</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1041" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8">
+      <c r="A1042">
+        <v>397491</v>
+      </c>
+      <c r="B1042">
+        <v>238</v>
+      </c>
+      <c r="C1042">
+        <v>241</v>
+      </c>
+      <c r="D1042">
+        <v>4</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1042" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8">
+      <c r="A1043">
+        <v>397492</v>
+      </c>
+      <c r="B1043">
+        <v>317</v>
+      </c>
+      <c r="C1043">
+        <v>320</v>
+      </c>
+      <c r="D1043">
+        <v>4</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1043" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8">
+      <c r="A1044">
+        <v>397492</v>
+      </c>
+      <c r="B1044">
+        <v>716</v>
+      </c>
+      <c r="C1044">
+        <v>720</v>
+      </c>
+      <c r="D1044">
+        <v>5</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1044" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1044" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8">
+      <c r="A1045">
+        <v>397502</v>
+      </c>
+      <c r="B1045">
+        <v>394</v>
+      </c>
+      <c r="C1045">
+        <v>399</v>
+      </c>
+      <c r="D1045">
+        <v>6</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1045" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8">
+      <c r="A1046">
+        <v>397502</v>
+      </c>
+      <c r="B1046">
+        <v>472</v>
+      </c>
+      <c r="C1046">
+        <v>477</v>
+      </c>
+      <c r="D1046">
+        <v>6</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1046" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8">
+      <c r="A1047">
+        <v>397502</v>
+      </c>
+      <c r="B1047">
+        <v>569</v>
+      </c>
+      <c r="C1047">
+        <v>571</v>
+      </c>
+      <c r="D1047">
+        <v>3</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1047" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8">
+      <c r="A1048">
+        <v>397503</v>
+      </c>
+      <c r="B1048">
+        <v>33</v>
+      </c>
+      <c r="C1048">
+        <v>37</v>
+      </c>
+      <c r="D1048">
+        <v>5</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1048" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1048" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8">
+      <c r="A1049">
+        <v>397503</v>
+      </c>
+      <c r="B1049">
+        <v>110</v>
+      </c>
+      <c r="C1049">
+        <v>111</v>
+      </c>
+      <c r="D1049">
+        <v>2</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8">
+      <c r="A1050">
+        <v>397529</v>
+      </c>
+      <c r="B1050">
+        <v>582</v>
+      </c>
+      <c r="C1050">
+        <v>585</v>
+      </c>
+      <c r="D1050">
+        <v>4</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1050" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8">
+      <c r="A1051">
+        <v>397532</v>
+      </c>
+      <c r="B1051">
+        <v>24</v>
+      </c>
+      <c r="C1051">
+        <v>26</v>
+      </c>
+      <c r="D1051">
+        <v>3</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8">
+      <c r="A1052">
+        <v>397532</v>
+      </c>
+      <c r="B1052">
+        <v>80</v>
+      </c>
+      <c r="C1052">
+        <v>85</v>
+      </c>
+      <c r="D1052">
+        <v>6</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1052" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1052" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8">
+      <c r="A1053">
+        <v>397548</v>
+      </c>
+      <c r="B1053">
+        <v>168</v>
+      </c>
+      <c r="C1053">
+        <v>169</v>
+      </c>
+      <c r="D1053">
+        <v>2</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1053" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8">
+      <c r="A1054">
+        <v>397595</v>
+      </c>
+      <c r="B1054">
+        <v>412</v>
+      </c>
+      <c r="C1054">
+        <v>416</v>
+      </c>
+      <c r="D1054">
+        <v>5</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1054" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1054" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8">
+      <c r="A1055">
+        <v>397596</v>
+      </c>
+      <c r="B1055">
+        <v>236</v>
+      </c>
+      <c r="C1055">
+        <v>236</v>
+      </c>
+      <c r="D1055">
+        <v>1</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1055" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8">
+      <c r="A1056">
+        <v>397596</v>
+      </c>
+      <c r="B1056">
+        <v>268</v>
+      </c>
+      <c r="C1056">
+        <v>268</v>
+      </c>
+      <c r="D1056">
+        <v>1</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1056" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1056" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8">
+      <c r="A1057">
+        <v>397596</v>
+      </c>
+      <c r="B1057">
+        <v>491</v>
+      </c>
+      <c r="C1057">
+        <v>491</v>
+      </c>
+      <c r="D1057">
+        <v>1</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1057" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1057" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8">
+      <c r="A1058">
+        <v>397596</v>
+      </c>
+      <c r="B1058">
+        <v>544</v>
+      </c>
+      <c r="C1058">
+        <v>544</v>
+      </c>
+      <c r="D1058">
+        <v>1</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1058" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1058" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8">
+      <c r="A1059">
+        <v>397596</v>
+      </c>
+      <c r="B1059">
+        <v>549</v>
+      </c>
+      <c r="C1059">
+        <v>549</v>
+      </c>
+      <c r="D1059">
+        <v>1</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1059" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1059" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Development/excels/Merged_Anomalies_PXRing_2.xlsx
+++ b/Development/excels/Merged_Anomalies_PXRing_2.xlsx
@@ -494,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A952" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
